--- a/biology/Zoologie/Cochevis_de_Thékla/Cochevis_de_Thékla.xlsx
+++ b/biology/Zoologie/Cochevis_de_Thékla/Cochevis_de_Thékla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cochevis_de_Th%C3%A9kla</t>
+          <t>Cochevis_de_Thékla</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galerida theklae
 Le Cochevis de Thékla (Galerida theklae) est une espèce d'alouettes, oiseaux de la famille des Alaudidae. Ces oiseaux ont une allure très proche de celle du cochevis huppé.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cochevis_de_Th%C3%A9kla</t>
+          <t>Cochevis_de_Thékla</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Longueur : 17 cm
 Envergure : 34 cm
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cochevis_de_Th%C3%A9kla</t>
+          <t>Cochevis_de_Thékla</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,11 +564,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Étymologie
-L'espèce Galerida theklae a été décrite par l’ornithologue allemand Christian Ludwig Brehm en 1857[1], il a dédié cette espèce, découverte par ses fils Alfred Edmund Brehm (1829-1884) et Reinhold Bernhard Brehm (1830-1891) à sa fille, Thekla Klothilde Bertha Brehm (1833-1857).
-Pour cochevis et Galerida, voir Cochevis huppé.
-Taxinomie
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'espèce Galerida theklae a été décrite par l’ornithologue allemand Christian Ludwig Brehm en 1857, il a dédié cette espèce, découverte par ses fils Alfred Edmund Brehm (1829-1884) et Reinhold Bernhard Brehm (1830-1891) à sa fille, Thekla Klothilde Bertha Brehm (1833-1857).
+Pour cochevis et Galerida, voir Cochevis huppé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cochevis_de_Thékla</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cochevis_de_Th%C3%A9kla</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
 Galerida theklae theklae Brehm, 1857 - France (Roussillon), Espagne et Portugal ;
 Galerida theklae erlangeri Hartert, 1904 - Nord du Maroc ;
 Galerida theklae ruficolor Whitaker, 1898 - centre et nord-est du Maroc, nord de l'Algérie, et nord Tunisie ;
@@ -570,44 +623,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cochevis_de_Th%C3%A9kla</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cochevis_de_Th%C3%A9kla</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Reproduction</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nid au sol, en forme de coupe. Ponte en avril-mai. Ponte de trois à six œufs, en général quatre, indiscernables de ceux de Galerida cristata là où les deux espèces cohabitent.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cochevis_de_Th%C3%A9kla</t>
+          <t>Cochevis_de_Thékla</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,10 +644,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nid au sol, en forme de coupe. Ponte en avril-mai. Ponte de trois à six œufs, en général quatre, indiscernables de ceux de Galerida cristata là où les deux espèces cohabitent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cochevis_de_Thékla</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cochevis_de_Th%C3%A9kla</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend du Roussillon à la péninsule Ibérique et à l'Afrique du Nord.
 Cette espèce se reproduit dans les pays suivants : Algérie, Égypte (extrême nord-ouest), Espagne, France, Libye, Maroc, Portugal, Tunisie.
